--- a/src/main/webapp/WEB-INF/template/商品配置供应商导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品配置供应商导入模板.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7492FD54-FCFC-4ADB-912E-57FB3DF3DF8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C434B5-20D6-4C4B-BE13-F6D5C3C9AE58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3372" yWindow="1080" windowWidth="18672" windowHeight="10344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="供应商信息" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -68,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联营扣点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>厂商SKU编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,6 +82,14 @@
   </si>
   <si>
     <t>是否缺省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联营扣点(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返点(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +472,7 @@
   <dimension ref="A1:I530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -489,19 +494,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6326,7 +6331,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{E645D317-0D42-46CC-95D4-B9B80E348D97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{E645D317-0D42-46CC-95D4-B9B80E348D97}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/webapp/WEB-INF/template/商品配置供应商导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品配置供应商导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\aiqin\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C434B5-20D6-4C4B-BE13-F6D5C3C9AE58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F4551A-0FB6-4B4F-9792-B8CA4E1D003A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3372" yWindow="1080" windowWidth="18672" windowHeight="10344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="3045" windowWidth="16177" windowHeight="10973" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="供应商信息" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <author>LeslieNicole</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{53796FCC-A4DF-4956-9A9D-F01E8B5AF1D1}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{53796FCC-A4DF-4956-9A9D-F01E8B5AF1D1}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SKU编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,15 +81,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否缺省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>联营扣点(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>返点(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含税采购价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,18 +187,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,47 +484,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AD0DB4-5DEC-4A2C-8EEF-3F7978F57EEB}">
-  <dimension ref="A1:I530"/>
+  <dimension ref="A1:L528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="20.21875" style="3"/>
+    <col min="1" max="12" width="20.19921875" style="5"/>
+    <col min="13" max="16384" width="20.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -519,8 +544,11 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -530,8 +558,11 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -541,8 +572,11 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -552,8 +586,11 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -563,8 +600,11 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -574,8 +614,11 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -585,8 +628,11 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -596,8 +642,11 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -607,8 +656,11 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -618,8 +670,11 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -629,8 +684,11 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -640,8 +698,11 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -651,8 +712,11 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -662,8 +726,11 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -673,8 +740,11 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -684,8 +754,11 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -695,8 +768,11 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -706,8 +782,11 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -717,8 +796,11 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -728,8 +810,11 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -739,8 +824,11 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -750,8 +838,11 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -761,8 +852,11 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -772,8 +866,11 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -783,8 +880,11 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -794,8 +894,11 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -805,8 +908,11 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -816,8 +922,11 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -827,8 +936,11 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -838,8 +950,11 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -849,8 +964,11 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -860,8 +978,11 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -871,8 +992,11 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -882,8 +1006,11 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -893,8 +1020,11 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -904,8 +1034,11 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -915,8 +1048,11 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -926,8 +1062,11 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -937,8 +1076,11 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -948,8 +1090,11 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -959,8 +1104,11 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -970,8 +1118,11 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -981,8 +1132,11 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -992,8 +1146,11 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1003,8 +1160,11 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1014,8 +1174,11 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1025,8 +1188,11 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1036,8 +1202,11 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1047,8 +1216,11 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1058,8 +1230,11 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1069,8 +1244,11 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1080,8 +1258,11 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1091,8 +1272,11 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1102,8 +1286,11 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1113,8 +1300,11 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1124,8 +1314,11 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1135,8 +1328,11 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1146,8 +1342,11 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1157,8 +1356,11 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1168,8 +1370,11 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1179,8 +1384,11 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1190,8 +1398,11 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1201,8 +1412,11 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1212,8 +1426,11 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1223,8 +1440,11 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1234,8 +1454,11 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1245,8 +1468,11 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1256,8 +1482,11 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1267,8 +1496,11 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1278,8 +1510,11 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1289,8 +1524,11 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1300,8 +1538,11 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -1311,8 +1552,11 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -1322,8 +1566,11 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -1333,8 +1580,11 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1344,8 +1594,11 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -1355,8 +1608,11 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -1366,8 +1622,11 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -1377,8 +1636,11 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -1388,8 +1650,11 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -1399,8 +1664,11 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -1410,8 +1678,11 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -1421,8 +1692,11 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -1432,8 +1706,11 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -1443,8 +1720,11 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -1454,8 +1734,11 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -1465,8 +1748,11 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -1476,8 +1762,11 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -1487,8 +1776,11 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -1498,8 +1790,11 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -1509,8 +1804,11 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -1520,8 +1818,11 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -1531,8 +1832,11 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -1542,8 +1846,11 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -1553,8 +1860,11 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -1564,8 +1874,11 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -1575,8 +1888,11 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -1586,8 +1902,11 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -1597,8 +1916,11 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -1608,8 +1930,11 @@
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -1619,8 +1944,11 @@
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -1630,8 +1958,11 @@
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -1641,8 +1972,11 @@
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -1652,8 +1986,11 @@
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -1663,8 +2000,11 @@
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -1674,8 +2014,11 @@
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -1685,8 +2028,11 @@
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -1696,8 +2042,11 @@
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -1707,8 +2056,11 @@
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -1718,8 +2070,11 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -1729,8 +2084,11 @@
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -1740,8 +2098,11 @@
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -1751,8 +2112,11 @@
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -1762,8 +2126,11 @@
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -1773,8 +2140,11 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -1784,8 +2154,11 @@
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -1795,8 +2168,11 @@
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -1806,8 +2182,11 @@
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -1817,8 +2196,11 @@
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -1828,8 +2210,11 @@
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -1839,8 +2224,11 @@
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -1850,8 +2238,11 @@
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -1861,8 +2252,11 @@
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -1872,8 +2266,11 @@
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -1883,8 +2280,11 @@
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -1894,8 +2294,11 @@
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -1905,8 +2308,11 @@
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -1916,8 +2322,11 @@
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -1927,8 +2336,11 @@
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -1938,8 +2350,11 @@
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -1949,8 +2364,11 @@
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -1960,8 +2378,11 @@
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -1971,8 +2392,11 @@
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -1982,8 +2406,11 @@
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -1993,8 +2420,11 @@
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2004,8 +2434,11 @@
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -2015,8 +2448,11 @@
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -2026,8 +2462,11 @@
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -2037,8 +2476,11 @@
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -2048,8 +2490,11 @@
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -2059,8 +2504,11 @@
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -2070,8 +2518,11 @@
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -2081,8 +2532,11 @@
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -2092,8 +2546,11 @@
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -2103,8 +2560,11 @@
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -2114,8 +2574,11 @@
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -2125,8 +2588,11 @@
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -2136,8 +2602,11 @@
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -2147,8 +2616,11 @@
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -2158,8 +2630,11 @@
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -2169,8 +2644,11 @@
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -2180,8 +2658,11 @@
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -2191,8 +2672,11 @@
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -2202,8 +2686,11 @@
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -2213,8 +2700,11 @@
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -2224,8 +2714,11 @@
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -2235,8 +2728,11 @@
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -2246,8 +2742,11 @@
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -2257,8 +2756,11 @@
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -2268,8 +2770,11 @@
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -2279,8 +2784,11 @@
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -2290,8 +2798,11 @@
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="4"/>
+      <c r="K163" s="4"/>
+      <c r="L163" s="4"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -2301,8 +2812,11 @@
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
+      <c r="L164" s="4"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -2312,8 +2826,11 @@
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -2323,8 +2840,11 @@
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -2334,8 +2854,11 @@
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -2345,8 +2868,11 @@
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+      <c r="L168" s="4"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -2356,8 +2882,11 @@
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+      <c r="L169" s="4"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -2367,8 +2896,11 @@
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -2378,8 +2910,11 @@
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -2389,8 +2924,11 @@
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -2400,8 +2938,11 @@
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -2411,8 +2952,11 @@
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -2422,8 +2966,11 @@
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="4"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -2433,8 +2980,11 @@
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="4"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -2444,8 +2994,11 @@
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -2455,8 +3008,11 @@
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -2466,8 +3022,11 @@
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -2477,8 +3036,11 @@
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -2488,8 +3050,11 @@
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="4"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -2499,8 +3064,11 @@
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="4"/>
+      <c r="K182" s="4"/>
+      <c r="L182" s="4"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -2510,8 +3078,11 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+      <c r="L183" s="4"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -2521,8 +3092,11 @@
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="4"/>
+      <c r="K184" s="4"/>
+      <c r="L184" s="4"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -2532,8 +3106,11 @@
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="4"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -2543,8 +3120,11 @@
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="4"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -2554,8 +3134,11 @@
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
+      <c r="L187" s="4"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -2565,8 +3148,11 @@
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="4"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -2576,8 +3162,11 @@
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="4"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -2587,8 +3176,11 @@
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+      <c r="L190" s="4"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -2598,8 +3190,11 @@
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" s="4"/>
+      <c r="K191" s="4"/>
+      <c r="L191" s="4"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -2609,8 +3204,11 @@
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" s="4"/>
+      <c r="K192" s="4"/>
+      <c r="L192" s="4"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -2620,8 +3218,11 @@
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" s="4"/>
+      <c r="K193" s="4"/>
+      <c r="L193" s="4"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -2631,8 +3232,11 @@
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" s="4"/>
+      <c r="K194" s="4"/>
+      <c r="L194" s="4"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -2642,8 +3246,11 @@
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" s="4"/>
+      <c r="K195" s="4"/>
+      <c r="L195" s="4"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -2653,8 +3260,11 @@
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -2664,8 +3274,11 @@
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -2675,8 +3288,11 @@
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" s="4"/>
+      <c r="K198" s="4"/>
+      <c r="L198" s="4"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -2686,8 +3302,11 @@
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" s="4"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="4"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -2697,8 +3316,11 @@
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" s="4"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="4"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -2708,8 +3330,11 @@
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="4"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -2719,8 +3344,11 @@
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="4"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -2730,8 +3358,11 @@
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -2741,8 +3372,11 @@
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" s="4"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="4"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -2752,8 +3386,11 @@
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -2763,8 +3400,11 @@
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -2774,8 +3414,11 @@
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" s="4"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="4"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -2785,8 +3428,11 @@
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" s="4"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="4"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -2796,8 +3442,11 @@
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" s="4"/>
+      <c r="K209" s="4"/>
+      <c r="L209" s="4"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -2807,8 +3456,11 @@
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" s="4"/>
+      <c r="K210" s="4"/>
+      <c r="L210" s="4"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -2818,8 +3470,11 @@
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" s="4"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="4"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -2829,8 +3484,11 @@
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" s="4"/>
+      <c r="K212" s="4"/>
+      <c r="L212" s="4"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -2840,8 +3498,11 @@
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" s="4"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="4"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -2851,8 +3512,11 @@
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" s="4"/>
+      <c r="K214" s="4"/>
+      <c r="L214" s="4"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -2862,8 +3526,11 @@
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" s="4"/>
+      <c r="K215" s="4"/>
+      <c r="L215" s="4"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -2873,8 +3540,11 @@
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" s="4"/>
+      <c r="K216" s="4"/>
+      <c r="L216" s="4"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -2884,8 +3554,11 @@
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" s="4"/>
+      <c r="K217" s="4"/>
+      <c r="L217" s="4"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -2895,8 +3568,11 @@
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" s="4"/>
+      <c r="K218" s="4"/>
+      <c r="L218" s="4"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -2906,8 +3582,11 @@
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" s="4"/>
+      <c r="K219" s="4"/>
+      <c r="L219" s="4"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -2917,8 +3596,11 @@
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" s="4"/>
+      <c r="K220" s="4"/>
+      <c r="L220" s="4"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -2928,8 +3610,11 @@
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" s="4"/>
+      <c r="K221" s="4"/>
+      <c r="L221" s="4"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -2939,8 +3624,11 @@
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" s="4"/>
+      <c r="K222" s="4"/>
+      <c r="L222" s="4"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -2950,8 +3638,11 @@
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" s="4"/>
+      <c r="K223" s="4"/>
+      <c r="L223" s="4"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -2961,8 +3652,11 @@
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224" s="4"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="4"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -2972,8 +3666,11 @@
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" s="4"/>
+      <c r="K225" s="4"/>
+      <c r="L225" s="4"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -2983,8 +3680,11 @@
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226" s="4"/>
+      <c r="K226" s="4"/>
+      <c r="L226" s="4"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -2994,8 +3694,11 @@
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227" s="4"/>
+      <c r="K227" s="4"/>
+      <c r="L227" s="4"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -3005,8 +3708,11 @@
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228" s="4"/>
+      <c r="K228" s="4"/>
+      <c r="L228" s="4"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -3016,8 +3722,11 @@
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229" s="4"/>
+      <c r="K229" s="4"/>
+      <c r="L229" s="4"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -3027,8 +3736,11 @@
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J230" s="4"/>
+      <c r="K230" s="4"/>
+      <c r="L230" s="4"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -3038,8 +3750,11 @@
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J231" s="4"/>
+      <c r="K231" s="4"/>
+      <c r="L231" s="4"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -3049,8 +3764,11 @@
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232" s="4"/>
+      <c r="K232" s="4"/>
+      <c r="L232" s="4"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -3060,8 +3778,11 @@
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J233" s="4"/>
+      <c r="K233" s="4"/>
+      <c r="L233" s="4"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -3071,8 +3792,11 @@
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J234" s="4"/>
+      <c r="K234" s="4"/>
+      <c r="L234" s="4"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -3082,8 +3806,11 @@
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J235" s="4"/>
+      <c r="K235" s="4"/>
+      <c r="L235" s="4"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -3093,8 +3820,11 @@
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J236" s="4"/>
+      <c r="K236" s="4"/>
+      <c r="L236" s="4"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -3104,8 +3834,11 @@
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J237" s="4"/>
+      <c r="K237" s="4"/>
+      <c r="L237" s="4"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -3115,8 +3848,11 @@
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J238" s="4"/>
+      <c r="K238" s="4"/>
+      <c r="L238" s="4"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -3126,8 +3862,11 @@
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J239" s="4"/>
+      <c r="K239" s="4"/>
+      <c r="L239" s="4"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -3137,8 +3876,11 @@
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J240" s="4"/>
+      <c r="K240" s="4"/>
+      <c r="L240" s="4"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -3148,8 +3890,11 @@
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J241" s="4"/>
+      <c r="K241" s="4"/>
+      <c r="L241" s="4"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -3159,8 +3904,11 @@
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242" s="4"/>
+      <c r="K242" s="4"/>
+      <c r="L242" s="4"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -3170,8 +3918,11 @@
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J243" s="4"/>
+      <c r="K243" s="4"/>
+      <c r="L243" s="4"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -3181,8 +3932,11 @@
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J244" s="4"/>
+      <c r="K244" s="4"/>
+      <c r="L244" s="4"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -3192,8 +3946,11 @@
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J245" s="4"/>
+      <c r="K245" s="4"/>
+      <c r="L245" s="4"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -3203,8 +3960,11 @@
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J246" s="4"/>
+      <c r="K246" s="4"/>
+      <c r="L246" s="4"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -3214,8 +3974,11 @@
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J247" s="4"/>
+      <c r="K247" s="4"/>
+      <c r="L247" s="4"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -3225,8 +3988,11 @@
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J248" s="4"/>
+      <c r="K248" s="4"/>
+      <c r="L248" s="4"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -3236,8 +4002,11 @@
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249" s="4"/>
+      <c r="K249" s="4"/>
+      <c r="L249" s="4"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -3247,8 +4016,11 @@
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J250" s="4"/>
+      <c r="K250" s="4"/>
+      <c r="L250" s="4"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -3258,8 +4030,11 @@
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J251" s="4"/>
+      <c r="K251" s="4"/>
+      <c r="L251" s="4"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -3269,8 +4044,11 @@
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J252" s="4"/>
+      <c r="K252" s="4"/>
+      <c r="L252" s="4"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -3280,8 +4058,11 @@
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J253" s="4"/>
+      <c r="K253" s="4"/>
+      <c r="L253" s="4"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -3291,8 +4072,11 @@
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J254" s="4"/>
+      <c r="K254" s="4"/>
+      <c r="L254" s="4"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -3302,8 +4086,11 @@
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J255" s="4"/>
+      <c r="K255" s="4"/>
+      <c r="L255" s="4"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -3313,8 +4100,11 @@
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256" s="4"/>
+      <c r="K256" s="4"/>
+      <c r="L256" s="4"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -3324,8 +4114,11 @@
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J257" s="4"/>
+      <c r="K257" s="4"/>
+      <c r="L257" s="4"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -3335,8 +4128,11 @@
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J258" s="4"/>
+      <c r="K258" s="4"/>
+      <c r="L258" s="4"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -3346,8 +4142,11 @@
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J259" s="4"/>
+      <c r="K259" s="4"/>
+      <c r="L259" s="4"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -3357,8 +4156,11 @@
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J260" s="4"/>
+      <c r="K260" s="4"/>
+      <c r="L260" s="4"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -3368,8 +4170,11 @@
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J261" s="4"/>
+      <c r="K261" s="4"/>
+      <c r="L261" s="4"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -3379,8 +4184,11 @@
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J262" s="4"/>
+      <c r="K262" s="4"/>
+      <c r="L262" s="4"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -3390,8 +4198,11 @@
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J263" s="4"/>
+      <c r="K263" s="4"/>
+      <c r="L263" s="4"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -3401,8 +4212,11 @@
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J264" s="4"/>
+      <c r="K264" s="4"/>
+      <c r="L264" s="4"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -3412,8 +4226,11 @@
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J265" s="4"/>
+      <c r="K265" s="4"/>
+      <c r="L265" s="4"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -3423,8 +4240,11 @@
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J266" s="4"/>
+      <c r="K266" s="4"/>
+      <c r="L266" s="4"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -3434,8 +4254,11 @@
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J267" s="4"/>
+      <c r="K267" s="4"/>
+      <c r="L267" s="4"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -3445,8 +4268,11 @@
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J268" s="4"/>
+      <c r="K268" s="4"/>
+      <c r="L268" s="4"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -3456,8 +4282,11 @@
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J269" s="4"/>
+      <c r="K269" s="4"/>
+      <c r="L269" s="4"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -3467,8 +4296,11 @@
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J270" s="4"/>
+      <c r="K270" s="4"/>
+      <c r="L270" s="4"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -3478,8 +4310,11 @@
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J271" s="4"/>
+      <c r="K271" s="4"/>
+      <c r="L271" s="4"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -3489,8 +4324,11 @@
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J272" s="4"/>
+      <c r="K272" s="4"/>
+      <c r="L272" s="4"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -3500,8 +4338,11 @@
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" s="4"/>
+      <c r="K273" s="4"/>
+      <c r="L273" s="4"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -3511,8 +4352,11 @@
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J274" s="4"/>
+      <c r="K274" s="4"/>
+      <c r="L274" s="4"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -3522,8 +4366,11 @@
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J275" s="4"/>
+      <c r="K275" s="4"/>
+      <c r="L275" s="4"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -3533,8 +4380,11 @@
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J276" s="4"/>
+      <c r="K276" s="4"/>
+      <c r="L276" s="4"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -3544,8 +4394,11 @@
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J277" s="4"/>
+      <c r="K277" s="4"/>
+      <c r="L277" s="4"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -3555,8 +4408,11 @@
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J278" s="4"/>
+      <c r="K278" s="4"/>
+      <c r="L278" s="4"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -3566,8 +4422,11 @@
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J279" s="4"/>
+      <c r="K279" s="4"/>
+      <c r="L279" s="4"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -3577,8 +4436,11 @@
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280" s="4"/>
+      <c r="K280" s="4"/>
+      <c r="L280" s="4"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -3588,8 +4450,11 @@
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J281" s="4"/>
+      <c r="K281" s="4"/>
+      <c r="L281" s="4"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -3599,8 +4464,11 @@
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J282" s="4"/>
+      <c r="K282" s="4"/>
+      <c r="L282" s="4"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -3610,8 +4478,11 @@
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J283" s="4"/>
+      <c r="K283" s="4"/>
+      <c r="L283" s="4"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -3621,8 +4492,11 @@
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J284" s="4"/>
+      <c r="K284" s="4"/>
+      <c r="L284" s="4"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -3632,8 +4506,11 @@
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J285" s="4"/>
+      <c r="K285" s="4"/>
+      <c r="L285" s="4"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -3643,8 +4520,11 @@
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J286" s="4"/>
+      <c r="K286" s="4"/>
+      <c r="L286" s="4"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -3654,8 +4534,11 @@
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" s="4"/>
+      <c r="K287" s="4"/>
+      <c r="L287" s="4"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -3665,8 +4548,11 @@
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J288" s="4"/>
+      <c r="K288" s="4"/>
+      <c r="L288" s="4"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -3676,8 +4562,11 @@
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J289" s="4"/>
+      <c r="K289" s="4"/>
+      <c r="L289" s="4"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -3687,8 +4576,11 @@
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J290" s="4"/>
+      <c r="K290" s="4"/>
+      <c r="L290" s="4"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -3698,8 +4590,11 @@
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J291" s="4"/>
+      <c r="K291" s="4"/>
+      <c r="L291" s="4"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -3709,8 +4604,11 @@
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J292" s="4"/>
+      <c r="K292" s="4"/>
+      <c r="L292" s="4"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -3720,8 +4618,11 @@
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J293" s="4"/>
+      <c r="K293" s="4"/>
+      <c r="L293" s="4"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -3731,8 +4632,11 @@
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J294" s="4"/>
+      <c r="K294" s="4"/>
+      <c r="L294" s="4"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -3742,8 +4646,11 @@
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J295" s="4"/>
+      <c r="K295" s="4"/>
+      <c r="L295" s="4"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -3753,8 +4660,11 @@
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J296" s="4"/>
+      <c r="K296" s="4"/>
+      <c r="L296" s="4"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -3764,8 +4674,11 @@
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J297" s="4"/>
+      <c r="K297" s="4"/>
+      <c r="L297" s="4"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -3775,8 +4688,11 @@
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J298" s="4"/>
+      <c r="K298" s="4"/>
+      <c r="L298" s="4"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -3786,8 +4702,11 @@
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J299" s="4"/>
+      <c r="K299" s="4"/>
+      <c r="L299" s="4"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -3797,8 +4716,11 @@
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J300" s="4"/>
+      <c r="K300" s="4"/>
+      <c r="L300" s="4"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -3808,8 +4730,11 @@
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J301" s="4"/>
+      <c r="K301" s="4"/>
+      <c r="L301" s="4"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -3819,8 +4744,11 @@
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J302" s="4"/>
+      <c r="K302" s="4"/>
+      <c r="L302" s="4"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -3830,8 +4758,11 @@
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J303" s="4"/>
+      <c r="K303" s="4"/>
+      <c r="L303" s="4"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -3841,8 +4772,11 @@
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J304" s="4"/>
+      <c r="K304" s="4"/>
+      <c r="L304" s="4"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -3852,8 +4786,11 @@
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J305" s="4"/>
+      <c r="K305" s="4"/>
+      <c r="L305" s="4"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -3863,8 +4800,11 @@
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J306" s="4"/>
+      <c r="K306" s="4"/>
+      <c r="L306" s="4"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -3874,8 +4814,11 @@
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J307" s="4"/>
+      <c r="K307" s="4"/>
+      <c r="L307" s="4"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -3885,8 +4828,11 @@
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J308" s="4"/>
+      <c r="K308" s="4"/>
+      <c r="L308" s="4"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -3896,8 +4842,11 @@
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J309" s="4"/>
+      <c r="K309" s="4"/>
+      <c r="L309" s="4"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -3907,8 +4856,11 @@
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J310" s="4"/>
+      <c r="K310" s="4"/>
+      <c r="L310" s="4"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -3918,8 +4870,11 @@
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J311" s="4"/>
+      <c r="K311" s="4"/>
+      <c r="L311" s="4"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -3929,8 +4884,11 @@
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J312" s="4"/>
+      <c r="K312" s="4"/>
+      <c r="L312" s="4"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -3940,8 +4898,11 @@
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
       <c r="I313" s="4"/>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J313" s="4"/>
+      <c r="K313" s="4"/>
+      <c r="L313" s="4"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -3951,8 +4912,11 @@
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J314" s="4"/>
+      <c r="K314" s="4"/>
+      <c r="L314" s="4"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -3962,8 +4926,11 @@
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J315" s="4"/>
+      <c r="K315" s="4"/>
+      <c r="L315" s="4"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -3973,8 +4940,11 @@
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
       <c r="I316" s="4"/>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J316" s="4"/>
+      <c r="K316" s="4"/>
+      <c r="L316" s="4"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -3984,8 +4954,11 @@
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J317" s="4"/>
+      <c r="K317" s="4"/>
+      <c r="L317" s="4"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -3995,8 +4968,11 @@
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J318" s="4"/>
+      <c r="K318" s="4"/>
+      <c r="L318" s="4"/>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -4006,8 +4982,11 @@
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
       <c r="I319" s="4"/>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J319" s="4"/>
+      <c r="K319" s="4"/>
+      <c r="L319" s="4"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -4017,8 +4996,11 @@
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J320" s="4"/>
+      <c r="K320" s="4"/>
+      <c r="L320" s="4"/>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -4028,8 +5010,11 @@
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
       <c r="I321" s="4"/>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J321" s="4"/>
+      <c r="K321" s="4"/>
+      <c r="L321" s="4"/>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -4039,8 +5024,11 @@
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J322" s="4"/>
+      <c r="K322" s="4"/>
+      <c r="L322" s="4"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -4050,8 +5038,11 @@
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
       <c r="I323" s="4"/>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J323" s="4"/>
+      <c r="K323" s="4"/>
+      <c r="L323" s="4"/>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -4061,8 +5052,11 @@
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
       <c r="I324" s="4"/>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J324" s="4"/>
+      <c r="K324" s="4"/>
+      <c r="L324" s="4"/>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -4072,8 +5066,11 @@
       <c r="G325" s="4"/>
       <c r="H325" s="4"/>
       <c r="I325" s="4"/>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J325" s="4"/>
+      <c r="K325" s="4"/>
+      <c r="L325" s="4"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -4083,8 +5080,11 @@
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
       <c r="I326" s="4"/>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J326" s="4"/>
+      <c r="K326" s="4"/>
+      <c r="L326" s="4"/>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -4094,8 +5094,11 @@
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
       <c r="I327" s="4"/>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J327" s="4"/>
+      <c r="K327" s="4"/>
+      <c r="L327" s="4"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -4105,8 +5108,11 @@
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
       <c r="I328" s="4"/>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J328" s="4"/>
+      <c r="K328" s="4"/>
+      <c r="L328" s="4"/>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -4116,8 +5122,11 @@
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
       <c r="I329" s="4"/>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J329" s="4"/>
+      <c r="K329" s="4"/>
+      <c r="L329" s="4"/>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -4127,8 +5136,11 @@
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
       <c r="I330" s="4"/>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J330" s="4"/>
+      <c r="K330" s="4"/>
+      <c r="L330" s="4"/>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -4138,8 +5150,11 @@
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J331" s="4"/>
+      <c r="K331" s="4"/>
+      <c r="L331" s="4"/>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -4149,8 +5164,11 @@
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J332" s="4"/>
+      <c r="K332" s="4"/>
+      <c r="L332" s="4"/>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -4160,8 +5178,11 @@
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J333" s="4"/>
+      <c r="K333" s="4"/>
+      <c r="L333" s="4"/>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -4171,8 +5192,11 @@
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J334" s="4"/>
+      <c r="K334" s="4"/>
+      <c r="L334" s="4"/>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -4182,8 +5206,11 @@
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
       <c r="I335" s="4"/>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J335" s="4"/>
+      <c r="K335" s="4"/>
+      <c r="L335" s="4"/>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -4193,8 +5220,11 @@
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
       <c r="I336" s="4"/>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J336" s="4"/>
+      <c r="K336" s="4"/>
+      <c r="L336" s="4"/>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -4204,8 +5234,11 @@
       <c r="G337" s="4"/>
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J337" s="4"/>
+      <c r="K337" s="4"/>
+      <c r="L337" s="4"/>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -4215,8 +5248,11 @@
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J338" s="4"/>
+      <c r="K338" s="4"/>
+      <c r="L338" s="4"/>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -4226,8 +5262,11 @@
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
       <c r="I339" s="4"/>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J339" s="4"/>
+      <c r="K339" s="4"/>
+      <c r="L339" s="4"/>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -4237,8 +5276,11 @@
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
       <c r="I340" s="4"/>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J340" s="4"/>
+      <c r="K340" s="4"/>
+      <c r="L340" s="4"/>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -4248,8 +5290,11 @@
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
       <c r="I341" s="4"/>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J341" s="4"/>
+      <c r="K341" s="4"/>
+      <c r="L341" s="4"/>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -4259,8 +5304,11 @@
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
       <c r="I342" s="4"/>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J342" s="4"/>
+      <c r="K342" s="4"/>
+      <c r="L342" s="4"/>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -4270,8 +5318,11 @@
       <c r="G343" s="4"/>
       <c r="H343" s="4"/>
       <c r="I343" s="4"/>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J343" s="4"/>
+      <c r="K343" s="4"/>
+      <c r="L343" s="4"/>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -4281,8 +5332,11 @@
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
       <c r="I344" s="4"/>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J344" s="4"/>
+      <c r="K344" s="4"/>
+      <c r="L344" s="4"/>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -4292,8 +5346,11 @@
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J345" s="4"/>
+      <c r="K345" s="4"/>
+      <c r="L345" s="4"/>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -4303,8 +5360,11 @@
       <c r="G346" s="4"/>
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J346" s="4"/>
+      <c r="K346" s="4"/>
+      <c r="L346" s="4"/>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -4314,8 +5374,11 @@
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
       <c r="I347" s="4"/>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J347" s="4"/>
+      <c r="K347" s="4"/>
+      <c r="L347" s="4"/>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -4325,8 +5388,11 @@
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
       <c r="I348" s="4"/>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J348" s="4"/>
+      <c r="K348" s="4"/>
+      <c r="L348" s="4"/>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -4336,8 +5402,11 @@
       <c r="G349" s="4"/>
       <c r="H349" s="4"/>
       <c r="I349" s="4"/>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J349" s="4"/>
+      <c r="K349" s="4"/>
+      <c r="L349" s="4"/>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -4347,8 +5416,11 @@
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J350" s="4"/>
+      <c r="K350" s="4"/>
+      <c r="L350" s="4"/>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -4358,8 +5430,11 @@
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
       <c r="I351" s="4"/>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J351" s="4"/>
+      <c r="K351" s="4"/>
+      <c r="L351" s="4"/>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -4369,8 +5444,11 @@
       <c r="G352" s="4"/>
       <c r="H352" s="4"/>
       <c r="I352" s="4"/>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J352" s="4"/>
+      <c r="K352" s="4"/>
+      <c r="L352" s="4"/>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -4380,8 +5458,11 @@
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
       <c r="I353" s="4"/>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J353" s="4"/>
+      <c r="K353" s="4"/>
+      <c r="L353" s="4"/>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -4391,8 +5472,11 @@
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
       <c r="I354" s="4"/>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J354" s="4"/>
+      <c r="K354" s="4"/>
+      <c r="L354" s="4"/>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -4402,8 +5486,11 @@
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J355" s="4"/>
+      <c r="K355" s="4"/>
+      <c r="L355" s="4"/>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -4413,8 +5500,11 @@
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
       <c r="I356" s="4"/>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J356" s="4"/>
+      <c r="K356" s="4"/>
+      <c r="L356" s="4"/>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -4424,8 +5514,11 @@
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J357" s="4"/>
+      <c r="K357" s="4"/>
+      <c r="L357" s="4"/>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -4435,8 +5528,11 @@
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J358" s="4"/>
+      <c r="K358" s="4"/>
+      <c r="L358" s="4"/>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -4446,8 +5542,11 @@
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J359" s="4"/>
+      <c r="K359" s="4"/>
+      <c r="L359" s="4"/>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -4457,8 +5556,11 @@
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J360" s="4"/>
+      <c r="K360" s="4"/>
+      <c r="L360" s="4"/>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -4468,8 +5570,11 @@
       <c r="G361" s="4"/>
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J361" s="4"/>
+      <c r="K361" s="4"/>
+      <c r="L361" s="4"/>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -4479,8 +5584,11 @@
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J362" s="4"/>
+      <c r="K362" s="4"/>
+      <c r="L362" s="4"/>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -4490,8 +5598,11 @@
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J363" s="4"/>
+      <c r="K363" s="4"/>
+      <c r="L363" s="4"/>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -4501,8 +5612,11 @@
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
       <c r="I364" s="4"/>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J364" s="4"/>
+      <c r="K364" s="4"/>
+      <c r="L364" s="4"/>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -4512,8 +5626,11 @@
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J365" s="4"/>
+      <c r="K365" s="4"/>
+      <c r="L365" s="4"/>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -4523,8 +5640,11 @@
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
       <c r="I366" s="4"/>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J366" s="4"/>
+      <c r="K366" s="4"/>
+      <c r="L366" s="4"/>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -4534,8 +5654,11 @@
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J367" s="4"/>
+      <c r="K367" s="4"/>
+      <c r="L367" s="4"/>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -4545,8 +5668,11 @@
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
       <c r="I368" s="4"/>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J368" s="4"/>
+      <c r="K368" s="4"/>
+      <c r="L368" s="4"/>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -4556,8 +5682,11 @@
       <c r="G369" s="4"/>
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J369" s="4"/>
+      <c r="K369" s="4"/>
+      <c r="L369" s="4"/>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -4567,8 +5696,11 @@
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
       <c r="I370" s="4"/>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J370" s="4"/>
+      <c r="K370" s="4"/>
+      <c r="L370" s="4"/>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -4578,8 +5710,11 @@
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J371" s="4"/>
+      <c r="K371" s="4"/>
+      <c r="L371" s="4"/>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -4589,8 +5724,11 @@
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
       <c r="I372" s="4"/>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J372" s="4"/>
+      <c r="K372" s="4"/>
+      <c r="L372" s="4"/>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -4600,8 +5738,11 @@
       <c r="G373" s="4"/>
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J373" s="4"/>
+      <c r="K373" s="4"/>
+      <c r="L373" s="4"/>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -4611,8 +5752,11 @@
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
       <c r="I374" s="4"/>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J374" s="4"/>
+      <c r="K374" s="4"/>
+      <c r="L374" s="4"/>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -4622,8 +5766,11 @@
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J375" s="4"/>
+      <c r="K375" s="4"/>
+      <c r="L375" s="4"/>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -4633,8 +5780,11 @@
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
       <c r="I376" s="4"/>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J376" s="4"/>
+      <c r="K376" s="4"/>
+      <c r="L376" s="4"/>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -4644,8 +5794,11 @@
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
       <c r="I377" s="4"/>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J377" s="4"/>
+      <c r="K377" s="4"/>
+      <c r="L377" s="4"/>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -4655,8 +5808,11 @@
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J378" s="4"/>
+      <c r="K378" s="4"/>
+      <c r="L378" s="4"/>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -4666,8 +5822,11 @@
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J379" s="4"/>
+      <c r="K379" s="4"/>
+      <c r="L379" s="4"/>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -4677,8 +5836,11 @@
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
       <c r="I380" s="4"/>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J380" s="4"/>
+      <c r="K380" s="4"/>
+      <c r="L380" s="4"/>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -4688,8 +5850,11 @@
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J381" s="4"/>
+      <c r="K381" s="4"/>
+      <c r="L381" s="4"/>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -4699,8 +5864,11 @@
       <c r="G382" s="4"/>
       <c r="H382" s="4"/>
       <c r="I382" s="4"/>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J382" s="4"/>
+      <c r="K382" s="4"/>
+      <c r="L382" s="4"/>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -4710,8 +5878,11 @@
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J383" s="4"/>
+      <c r="K383" s="4"/>
+      <c r="L383" s="4"/>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -4721,8 +5892,11 @@
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
       <c r="I384" s="4"/>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J384" s="4"/>
+      <c r="K384" s="4"/>
+      <c r="L384" s="4"/>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -4732,8 +5906,11 @@
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
       <c r="I385" s="4"/>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J385" s="4"/>
+      <c r="K385" s="4"/>
+      <c r="L385" s="4"/>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -4743,8 +5920,11 @@
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
       <c r="I386" s="4"/>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J386" s="4"/>
+      <c r="K386" s="4"/>
+      <c r="L386" s="4"/>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -4754,8 +5934,11 @@
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
       <c r="I387" s="4"/>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J387" s="4"/>
+      <c r="K387" s="4"/>
+      <c r="L387" s="4"/>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -4765,8 +5948,11 @@
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
       <c r="I388" s="4"/>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J388" s="4"/>
+      <c r="K388" s="4"/>
+      <c r="L388" s="4"/>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -4776,8 +5962,11 @@
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J389" s="4"/>
+      <c r="K389" s="4"/>
+      <c r="L389" s="4"/>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -4787,8 +5976,11 @@
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
       <c r="I390" s="4"/>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J390" s="4"/>
+      <c r="K390" s="4"/>
+      <c r="L390" s="4"/>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -4798,8 +5990,11 @@
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
       <c r="I391" s="4"/>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J391" s="4"/>
+      <c r="K391" s="4"/>
+      <c r="L391" s="4"/>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -4809,8 +6004,11 @@
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
       <c r="I392" s="4"/>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J392" s="4"/>
+      <c r="K392" s="4"/>
+      <c r="L392" s="4"/>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -4820,8 +6018,11 @@
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
       <c r="I393" s="4"/>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J393" s="4"/>
+      <c r="K393" s="4"/>
+      <c r="L393" s="4"/>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -4831,8 +6032,11 @@
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
       <c r="I394" s="4"/>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J394" s="4"/>
+      <c r="K394" s="4"/>
+      <c r="L394" s="4"/>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -4842,8 +6046,11 @@
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
       <c r="I395" s="4"/>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J395" s="4"/>
+      <c r="K395" s="4"/>
+      <c r="L395" s="4"/>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -4853,8 +6060,11 @@
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
       <c r="I396" s="4"/>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J396" s="4"/>
+      <c r="K396" s="4"/>
+      <c r="L396" s="4"/>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -4864,8 +6074,11 @@
       <c r="G397" s="4"/>
       <c r="H397" s="4"/>
       <c r="I397" s="4"/>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J397" s="4"/>
+      <c r="K397" s="4"/>
+      <c r="L397" s="4"/>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -4875,8 +6088,11 @@
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
       <c r="I398" s="4"/>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J398" s="4"/>
+      <c r="K398" s="4"/>
+      <c r="L398" s="4"/>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -4886,8 +6102,11 @@
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
       <c r="I399" s="4"/>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J399" s="4"/>
+      <c r="K399" s="4"/>
+      <c r="L399" s="4"/>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -4897,8 +6116,11 @@
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
       <c r="I400" s="4"/>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J400" s="4"/>
+      <c r="K400" s="4"/>
+      <c r="L400" s="4"/>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -4908,8 +6130,11 @@
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
       <c r="I401" s="4"/>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J401" s="4"/>
+      <c r="K401" s="4"/>
+      <c r="L401" s="4"/>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -4919,8 +6144,11 @@
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
       <c r="I402" s="4"/>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J402" s="4"/>
+      <c r="K402" s="4"/>
+      <c r="L402" s="4"/>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -4930,8 +6158,11 @@
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
       <c r="I403" s="4"/>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J403" s="4"/>
+      <c r="K403" s="4"/>
+      <c r="L403" s="4"/>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -4941,8 +6172,11 @@
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
       <c r="I404" s="4"/>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J404" s="4"/>
+      <c r="K404" s="4"/>
+      <c r="L404" s="4"/>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -4952,8 +6186,11 @@
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
       <c r="I405" s="4"/>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J405" s="4"/>
+      <c r="K405" s="4"/>
+      <c r="L405" s="4"/>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -4963,8 +6200,11 @@
       <c r="G406" s="4"/>
       <c r="H406" s="4"/>
       <c r="I406" s="4"/>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J406" s="4"/>
+      <c r="K406" s="4"/>
+      <c r="L406" s="4"/>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -4974,8 +6214,11 @@
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
       <c r="I407" s="4"/>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J407" s="4"/>
+      <c r="K407" s="4"/>
+      <c r="L407" s="4"/>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -4985,8 +6228,11 @@
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
       <c r="I408" s="4"/>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J408" s="4"/>
+      <c r="K408" s="4"/>
+      <c r="L408" s="4"/>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -4996,8 +6242,11 @@
       <c r="G409" s="4"/>
       <c r="H409" s="4"/>
       <c r="I409" s="4"/>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J409" s="4"/>
+      <c r="K409" s="4"/>
+      <c r="L409" s="4"/>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -5007,8 +6256,11 @@
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
       <c r="I410" s="4"/>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J410" s="4"/>
+      <c r="K410" s="4"/>
+      <c r="L410" s="4"/>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -5018,8 +6270,11 @@
       <c r="G411" s="4"/>
       <c r="H411" s="4"/>
       <c r="I411" s="4"/>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J411" s="4"/>
+      <c r="K411" s="4"/>
+      <c r="L411" s="4"/>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -5029,8 +6284,11 @@
       <c r="G412" s="4"/>
       <c r="H412" s="4"/>
       <c r="I412" s="4"/>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J412" s="4"/>
+      <c r="K412" s="4"/>
+      <c r="L412" s="4"/>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -5040,8 +6298,11 @@
       <c r="G413" s="4"/>
       <c r="H413" s="4"/>
       <c r="I413" s="4"/>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J413" s="4"/>
+      <c r="K413" s="4"/>
+      <c r="L413" s="4"/>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -5051,8 +6312,11 @@
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
       <c r="I414" s="4"/>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J414" s="4"/>
+      <c r="K414" s="4"/>
+      <c r="L414" s="4"/>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -5062,8 +6326,11 @@
       <c r="G415" s="4"/>
       <c r="H415" s="4"/>
       <c r="I415" s="4"/>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J415" s="4"/>
+      <c r="K415" s="4"/>
+      <c r="L415" s="4"/>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -5073,8 +6340,11 @@
       <c r="G416" s="4"/>
       <c r="H416" s="4"/>
       <c r="I416" s="4"/>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J416" s="4"/>
+      <c r="K416" s="4"/>
+      <c r="L416" s="4"/>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -5084,8 +6354,11 @@
       <c r="G417" s="4"/>
       <c r="H417" s="4"/>
       <c r="I417" s="4"/>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J417" s="4"/>
+      <c r="K417" s="4"/>
+      <c r="L417" s="4"/>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -5095,8 +6368,11 @@
       <c r="G418" s="4"/>
       <c r="H418" s="4"/>
       <c r="I418" s="4"/>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J418" s="4"/>
+      <c r="K418" s="4"/>
+      <c r="L418" s="4"/>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -5106,8 +6382,11 @@
       <c r="G419" s="4"/>
       <c r="H419" s="4"/>
       <c r="I419" s="4"/>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J419" s="4"/>
+      <c r="K419" s="4"/>
+      <c r="L419" s="4"/>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -5117,8 +6396,11 @@
       <c r="G420" s="4"/>
       <c r="H420" s="4"/>
       <c r="I420" s="4"/>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J420" s="4"/>
+      <c r="K420" s="4"/>
+      <c r="L420" s="4"/>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -5128,8 +6410,11 @@
       <c r="G421" s="4"/>
       <c r="H421" s="4"/>
       <c r="I421" s="4"/>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J421" s="4"/>
+      <c r="K421" s="4"/>
+      <c r="L421" s="4"/>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -5139,8 +6424,11 @@
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
       <c r="I422" s="4"/>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J422" s="4"/>
+      <c r="K422" s="4"/>
+      <c r="L422" s="4"/>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -5150,8 +6438,11 @@
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
       <c r="I423" s="4"/>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J423" s="4"/>
+      <c r="K423" s="4"/>
+      <c r="L423" s="4"/>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -5161,8 +6452,11 @@
       <c r="G424" s="4"/>
       <c r="H424" s="4"/>
       <c r="I424" s="4"/>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J424" s="4"/>
+      <c r="K424" s="4"/>
+      <c r="L424" s="4"/>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -5172,8 +6466,11 @@
       <c r="G425" s="4"/>
       <c r="H425" s="4"/>
       <c r="I425" s="4"/>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J425" s="4"/>
+      <c r="K425" s="4"/>
+      <c r="L425" s="4"/>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -5183,8 +6480,11 @@
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
       <c r="I426" s="4"/>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J426" s="4"/>
+      <c r="K426" s="4"/>
+      <c r="L426" s="4"/>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -5194,8 +6494,11 @@
       <c r="G427" s="4"/>
       <c r="H427" s="4"/>
       <c r="I427" s="4"/>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J427" s="4"/>
+      <c r="K427" s="4"/>
+      <c r="L427" s="4"/>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -5205,8 +6508,11 @@
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
       <c r="I428" s="4"/>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J428" s="4"/>
+      <c r="K428" s="4"/>
+      <c r="L428" s="4"/>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -5216,8 +6522,11 @@
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
       <c r="I429" s="4"/>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J429" s="4"/>
+      <c r="K429" s="4"/>
+      <c r="L429" s="4"/>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -5227,8 +6536,11 @@
       <c r="G430" s="4"/>
       <c r="H430" s="4"/>
       <c r="I430" s="4"/>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J430" s="4"/>
+      <c r="K430" s="4"/>
+      <c r="L430" s="4"/>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -5238,8 +6550,11 @@
       <c r="G431" s="4"/>
       <c r="H431" s="4"/>
       <c r="I431" s="4"/>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J431" s="4"/>
+      <c r="K431" s="4"/>
+      <c r="L431" s="4"/>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -5249,8 +6564,11 @@
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
       <c r="I432" s="4"/>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J432" s="4"/>
+      <c r="K432" s="4"/>
+      <c r="L432" s="4"/>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -5260,8 +6578,11 @@
       <c r="G433" s="4"/>
       <c r="H433" s="4"/>
       <c r="I433" s="4"/>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J433" s="4"/>
+      <c r="K433" s="4"/>
+      <c r="L433" s="4"/>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -5271,8 +6592,11 @@
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
       <c r="I434" s="4"/>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J434" s="4"/>
+      <c r="K434" s="4"/>
+      <c r="L434" s="4"/>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -5282,8 +6606,11 @@
       <c r="G435" s="4"/>
       <c r="H435" s="4"/>
       <c r="I435" s="4"/>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J435" s="4"/>
+      <c r="K435" s="4"/>
+      <c r="L435" s="4"/>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -5293,8 +6620,11 @@
       <c r="G436" s="4"/>
       <c r="H436" s="4"/>
       <c r="I436" s="4"/>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J436" s="4"/>
+      <c r="K436" s="4"/>
+      <c r="L436" s="4"/>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -5304,8 +6634,11 @@
       <c r="G437" s="4"/>
       <c r="H437" s="4"/>
       <c r="I437" s="4"/>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J437" s="4"/>
+      <c r="K437" s="4"/>
+      <c r="L437" s="4"/>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -5315,8 +6648,11 @@
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J438" s="4"/>
+      <c r="K438" s="4"/>
+      <c r="L438" s="4"/>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -5326,8 +6662,11 @@
       <c r="G439" s="4"/>
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J439" s="4"/>
+      <c r="K439" s="4"/>
+      <c r="L439" s="4"/>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -5337,8 +6676,11 @@
       <c r="G440" s="4"/>
       <c r="H440" s="4"/>
       <c r="I440" s="4"/>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J440" s="4"/>
+      <c r="K440" s="4"/>
+      <c r="L440" s="4"/>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -5348,8 +6690,11 @@
       <c r="G441" s="4"/>
       <c r="H441" s="4"/>
       <c r="I441" s="4"/>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J441" s="4"/>
+      <c r="K441" s="4"/>
+      <c r="L441" s="4"/>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -5359,8 +6704,11 @@
       <c r="G442" s="4"/>
       <c r="H442" s="4"/>
       <c r="I442" s="4"/>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J442" s="4"/>
+      <c r="K442" s="4"/>
+      <c r="L442" s="4"/>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -5370,8 +6718,11 @@
       <c r="G443" s="4"/>
       <c r="H443" s="4"/>
       <c r="I443" s="4"/>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J443" s="4"/>
+      <c r="K443" s="4"/>
+      <c r="L443" s="4"/>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -5381,8 +6732,11 @@
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J444" s="4"/>
+      <c r="K444" s="4"/>
+      <c r="L444" s="4"/>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -5392,8 +6746,11 @@
       <c r="G445" s="4"/>
       <c r="H445" s="4"/>
       <c r="I445" s="4"/>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J445" s="4"/>
+      <c r="K445" s="4"/>
+      <c r="L445" s="4"/>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -5403,8 +6760,11 @@
       <c r="G446" s="4"/>
       <c r="H446" s="4"/>
       <c r="I446" s="4"/>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J446" s="4"/>
+      <c r="K446" s="4"/>
+      <c r="L446" s="4"/>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -5414,8 +6774,11 @@
       <c r="G447" s="4"/>
       <c r="H447" s="4"/>
       <c r="I447" s="4"/>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J447" s="4"/>
+      <c r="K447" s="4"/>
+      <c r="L447" s="4"/>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -5425,8 +6788,11 @@
       <c r="G448" s="4"/>
       <c r="H448" s="4"/>
       <c r="I448" s="4"/>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J448" s="4"/>
+      <c r="K448" s="4"/>
+      <c r="L448" s="4"/>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -5436,8 +6802,11 @@
       <c r="G449" s="4"/>
       <c r="H449" s="4"/>
       <c r="I449" s="4"/>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J449" s="4"/>
+      <c r="K449" s="4"/>
+      <c r="L449" s="4"/>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -5447,8 +6816,11 @@
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J450" s="4"/>
+      <c r="K450" s="4"/>
+      <c r="L450" s="4"/>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -5458,8 +6830,11 @@
       <c r="G451" s="4"/>
       <c r="H451" s="4"/>
       <c r="I451" s="4"/>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J451" s="4"/>
+      <c r="K451" s="4"/>
+      <c r="L451" s="4"/>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -5469,8 +6844,11 @@
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
       <c r="I452" s="4"/>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J452" s="4"/>
+      <c r="K452" s="4"/>
+      <c r="L452" s="4"/>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -5480,8 +6858,11 @@
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
       <c r="I453" s="4"/>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J453" s="4"/>
+      <c r="K453" s="4"/>
+      <c r="L453" s="4"/>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -5491,8 +6872,11 @@
       <c r="G454" s="4"/>
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J454" s="4"/>
+      <c r="K454" s="4"/>
+      <c r="L454" s="4"/>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -5502,8 +6886,11 @@
       <c r="G455" s="4"/>
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J455" s="4"/>
+      <c r="K455" s="4"/>
+      <c r="L455" s="4"/>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -5513,8 +6900,11 @@
       <c r="G456" s="4"/>
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J456" s="4"/>
+      <c r="K456" s="4"/>
+      <c r="L456" s="4"/>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -5524,8 +6914,11 @@
       <c r="G457" s="4"/>
       <c r="H457" s="4"/>
       <c r="I457" s="4"/>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J457" s="4"/>
+      <c r="K457" s="4"/>
+      <c r="L457" s="4"/>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -5535,8 +6928,11 @@
       <c r="G458" s="4"/>
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J458" s="4"/>
+      <c r="K458" s="4"/>
+      <c r="L458" s="4"/>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -5546,8 +6942,11 @@
       <c r="G459" s="4"/>
       <c r="H459" s="4"/>
       <c r="I459" s="4"/>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J459" s="4"/>
+      <c r="K459" s="4"/>
+      <c r="L459" s="4"/>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -5557,8 +6956,11 @@
       <c r="G460" s="4"/>
       <c r="H460" s="4"/>
       <c r="I460" s="4"/>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J460" s="4"/>
+      <c r="K460" s="4"/>
+      <c r="L460" s="4"/>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -5568,8 +6970,11 @@
       <c r="G461" s="4"/>
       <c r="H461" s="4"/>
       <c r="I461" s="4"/>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J461" s="4"/>
+      <c r="K461" s="4"/>
+      <c r="L461" s="4"/>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -5579,8 +6984,11 @@
       <c r="G462" s="4"/>
       <c r="H462" s="4"/>
       <c r="I462" s="4"/>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J462" s="4"/>
+      <c r="K462" s="4"/>
+      <c r="L462" s="4"/>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -5590,8 +6998,11 @@
       <c r="G463" s="4"/>
       <c r="H463" s="4"/>
       <c r="I463" s="4"/>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J463" s="4"/>
+      <c r="K463" s="4"/>
+      <c r="L463" s="4"/>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -5601,8 +7012,11 @@
       <c r="G464" s="4"/>
       <c r="H464" s="4"/>
       <c r="I464" s="4"/>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J464" s="4"/>
+      <c r="K464" s="4"/>
+      <c r="L464" s="4"/>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -5612,8 +7026,11 @@
       <c r="G465" s="4"/>
       <c r="H465" s="4"/>
       <c r="I465" s="4"/>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J465" s="4"/>
+      <c r="K465" s="4"/>
+      <c r="L465" s="4"/>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -5623,8 +7040,11 @@
       <c r="G466" s="4"/>
       <c r="H466" s="4"/>
       <c r="I466" s="4"/>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J466" s="4"/>
+      <c r="K466" s="4"/>
+      <c r="L466" s="4"/>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -5634,8 +7054,11 @@
       <c r="G467" s="4"/>
       <c r="H467" s="4"/>
       <c r="I467" s="4"/>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J467" s="4"/>
+      <c r="K467" s="4"/>
+      <c r="L467" s="4"/>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -5645,8 +7068,11 @@
       <c r="G468" s="4"/>
       <c r="H468" s="4"/>
       <c r="I468" s="4"/>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J468" s="4"/>
+      <c r="K468" s="4"/>
+      <c r="L468" s="4"/>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -5656,8 +7082,11 @@
       <c r="G469" s="4"/>
       <c r="H469" s="4"/>
       <c r="I469" s="4"/>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J469" s="4"/>
+      <c r="K469" s="4"/>
+      <c r="L469" s="4"/>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -5667,8 +7096,11 @@
       <c r="G470" s="4"/>
       <c r="H470" s="4"/>
       <c r="I470" s="4"/>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J470" s="4"/>
+      <c r="K470" s="4"/>
+      <c r="L470" s="4"/>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -5678,8 +7110,11 @@
       <c r="G471" s="4"/>
       <c r="H471" s="4"/>
       <c r="I471" s="4"/>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J471" s="4"/>
+      <c r="K471" s="4"/>
+      <c r="L471" s="4"/>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -5689,8 +7124,11 @@
       <c r="G472" s="4"/>
       <c r="H472" s="4"/>
       <c r="I472" s="4"/>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J472" s="4"/>
+      <c r="K472" s="4"/>
+      <c r="L472" s="4"/>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -5700,8 +7138,11 @@
       <c r="G473" s="4"/>
       <c r="H473" s="4"/>
       <c r="I473" s="4"/>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J473" s="4"/>
+      <c r="K473" s="4"/>
+      <c r="L473" s="4"/>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -5711,8 +7152,11 @@
       <c r="G474" s="4"/>
       <c r="H474" s="4"/>
       <c r="I474" s="4"/>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J474" s="4"/>
+      <c r="K474" s="4"/>
+      <c r="L474" s="4"/>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -5722,8 +7166,11 @@
       <c r="G475" s="4"/>
       <c r="H475" s="4"/>
       <c r="I475" s="4"/>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J475" s="4"/>
+      <c r="K475" s="4"/>
+      <c r="L475" s="4"/>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -5733,8 +7180,11 @@
       <c r="G476" s="4"/>
       <c r="H476" s="4"/>
       <c r="I476" s="4"/>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J476" s="4"/>
+      <c r="K476" s="4"/>
+      <c r="L476" s="4"/>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -5744,8 +7194,11 @@
       <c r="G477" s="4"/>
       <c r="H477" s="4"/>
       <c r="I477" s="4"/>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J477" s="4"/>
+      <c r="K477" s="4"/>
+      <c r="L477" s="4"/>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -5755,8 +7208,11 @@
       <c r="G478" s="4"/>
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J478" s="4"/>
+      <c r="K478" s="4"/>
+      <c r="L478" s="4"/>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -5766,8 +7222,11 @@
       <c r="G479" s="4"/>
       <c r="H479" s="4"/>
       <c r="I479" s="4"/>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J479" s="4"/>
+      <c r="K479" s="4"/>
+      <c r="L479" s="4"/>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -5777,8 +7236,11 @@
       <c r="G480" s="4"/>
       <c r="H480" s="4"/>
       <c r="I480" s="4"/>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J480" s="4"/>
+      <c r="K480" s="4"/>
+      <c r="L480" s="4"/>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -5788,8 +7250,11 @@
       <c r="G481" s="4"/>
       <c r="H481" s="4"/>
       <c r="I481" s="4"/>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J481" s="4"/>
+      <c r="K481" s="4"/>
+      <c r="L481" s="4"/>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -5799,8 +7264,11 @@
       <c r="G482" s="4"/>
       <c r="H482" s="4"/>
       <c r="I482" s="4"/>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J482" s="4"/>
+      <c r="K482" s="4"/>
+      <c r="L482" s="4"/>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -5810,8 +7278,11 @@
       <c r="G483" s="4"/>
       <c r="H483" s="4"/>
       <c r="I483" s="4"/>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J483" s="4"/>
+      <c r="K483" s="4"/>
+      <c r="L483" s="4"/>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -5821,8 +7292,11 @@
       <c r="G484" s="4"/>
       <c r="H484" s="4"/>
       <c r="I484" s="4"/>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J484" s="4"/>
+      <c r="K484" s="4"/>
+      <c r="L484" s="4"/>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -5832,8 +7306,11 @@
       <c r="G485" s="4"/>
       <c r="H485" s="4"/>
       <c r="I485" s="4"/>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J485" s="4"/>
+      <c r="K485" s="4"/>
+      <c r="L485" s="4"/>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -5843,8 +7320,11 @@
       <c r="G486" s="4"/>
       <c r="H486" s="4"/>
       <c r="I486" s="4"/>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J486" s="4"/>
+      <c r="K486" s="4"/>
+      <c r="L486" s="4"/>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -5854,8 +7334,11 @@
       <c r="G487" s="4"/>
       <c r="H487" s="4"/>
       <c r="I487" s="4"/>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J487" s="4"/>
+      <c r="K487" s="4"/>
+      <c r="L487" s="4"/>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -5865,8 +7348,11 @@
       <c r="G488" s="4"/>
       <c r="H488" s="4"/>
       <c r="I488" s="4"/>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J488" s="4"/>
+      <c r="K488" s="4"/>
+      <c r="L488" s="4"/>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -5876,8 +7362,11 @@
       <c r="G489" s="4"/>
       <c r="H489" s="4"/>
       <c r="I489" s="4"/>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J489" s="4"/>
+      <c r="K489" s="4"/>
+      <c r="L489" s="4"/>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -5887,8 +7376,11 @@
       <c r="G490" s="4"/>
       <c r="H490" s="4"/>
       <c r="I490" s="4"/>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J490" s="4"/>
+      <c r="K490" s="4"/>
+      <c r="L490" s="4"/>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -5898,8 +7390,11 @@
       <c r="G491" s="4"/>
       <c r="H491" s="4"/>
       <c r="I491" s="4"/>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J491" s="4"/>
+      <c r="K491" s="4"/>
+      <c r="L491" s="4"/>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -5909,8 +7404,11 @@
       <c r="G492" s="4"/>
       <c r="H492" s="4"/>
       <c r="I492" s="4"/>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J492" s="4"/>
+      <c r="K492" s="4"/>
+      <c r="L492" s="4"/>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -5920,8 +7418,11 @@
       <c r="G493" s="4"/>
       <c r="H493" s="4"/>
       <c r="I493" s="4"/>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J493" s="4"/>
+      <c r="K493" s="4"/>
+      <c r="L493" s="4"/>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -5931,8 +7432,11 @@
       <c r="G494" s="4"/>
       <c r="H494" s="4"/>
       <c r="I494" s="4"/>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J494" s="4"/>
+      <c r="K494" s="4"/>
+      <c r="L494" s="4"/>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -5942,8 +7446,11 @@
       <c r="G495" s="4"/>
       <c r="H495" s="4"/>
       <c r="I495" s="4"/>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J495" s="4"/>
+      <c r="K495" s="4"/>
+      <c r="L495" s="4"/>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -5953,8 +7460,11 @@
       <c r="G496" s="4"/>
       <c r="H496" s="4"/>
       <c r="I496" s="4"/>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J496" s="4"/>
+      <c r="K496" s="4"/>
+      <c r="L496" s="4"/>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -5964,8 +7474,11 @@
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
       <c r="I497" s="4"/>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J497" s="4"/>
+      <c r="K497" s="4"/>
+      <c r="L497" s="4"/>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -5975,8 +7488,11 @@
       <c r="G498" s="4"/>
       <c r="H498" s="4"/>
       <c r="I498" s="4"/>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J498" s="4"/>
+      <c r="K498" s="4"/>
+      <c r="L498" s="4"/>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -5986,8 +7502,11 @@
       <c r="G499" s="4"/>
       <c r="H499" s="4"/>
       <c r="I499" s="4"/>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J499" s="4"/>
+      <c r="K499" s="4"/>
+      <c r="L499" s="4"/>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -5997,8 +7516,11 @@
       <c r="G500" s="4"/>
       <c r="H500" s="4"/>
       <c r="I500" s="4"/>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J500" s="4"/>
+      <c r="K500" s="4"/>
+      <c r="L500" s="4"/>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -6008,8 +7530,11 @@
       <c r="G501" s="4"/>
       <c r="H501" s="4"/>
       <c r="I501" s="4"/>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J501" s="4"/>
+      <c r="K501" s="4"/>
+      <c r="L501" s="4"/>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -6019,8 +7544,11 @@
       <c r="G502" s="4"/>
       <c r="H502" s="4"/>
       <c r="I502" s="4"/>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J502" s="4"/>
+      <c r="K502" s="4"/>
+      <c r="L502" s="4"/>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -6030,8 +7558,11 @@
       <c r="G503" s="4"/>
       <c r="H503" s="4"/>
       <c r="I503" s="4"/>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J503" s="4"/>
+      <c r="K503" s="4"/>
+      <c r="L503" s="4"/>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -6041,8 +7572,11 @@
       <c r="G504" s="4"/>
       <c r="H504" s="4"/>
       <c r="I504" s="4"/>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J504" s="4"/>
+      <c r="K504" s="4"/>
+      <c r="L504" s="4"/>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -6052,8 +7586,11 @@
       <c r="G505" s="4"/>
       <c r="H505" s="4"/>
       <c r="I505" s="4"/>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J505" s="4"/>
+      <c r="K505" s="4"/>
+      <c r="L505" s="4"/>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -6063,8 +7600,11 @@
       <c r="G506" s="4"/>
       <c r="H506" s="4"/>
       <c r="I506" s="4"/>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J506" s="4"/>
+      <c r="K506" s="4"/>
+      <c r="L506" s="4"/>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -6074,8 +7614,11 @@
       <c r="G507" s="4"/>
       <c r="H507" s="4"/>
       <c r="I507" s="4"/>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J507" s="4"/>
+      <c r="K507" s="4"/>
+      <c r="L507" s="4"/>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -6085,8 +7628,11 @@
       <c r="G508" s="4"/>
       <c r="H508" s="4"/>
       <c r="I508" s="4"/>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J508" s="4"/>
+      <c r="K508" s="4"/>
+      <c r="L508" s="4"/>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -6096,8 +7642,11 @@
       <c r="G509" s="4"/>
       <c r="H509" s="4"/>
       <c r="I509" s="4"/>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J509" s="4"/>
+      <c r="K509" s="4"/>
+      <c r="L509" s="4"/>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -6107,8 +7656,11 @@
       <c r="G510" s="4"/>
       <c r="H510" s="4"/>
       <c r="I510" s="4"/>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J510" s="4"/>
+      <c r="K510" s="4"/>
+      <c r="L510" s="4"/>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -6118,8 +7670,11 @@
       <c r="G511" s="4"/>
       <c r="H511" s="4"/>
       <c r="I511" s="4"/>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J511" s="4"/>
+      <c r="K511" s="4"/>
+      <c r="L511" s="4"/>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -6129,8 +7684,11 @@
       <c r="G512" s="4"/>
       <c r="H512" s="4"/>
       <c r="I512" s="4"/>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J512" s="4"/>
+      <c r="K512" s="4"/>
+      <c r="L512" s="4"/>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -6140,8 +7698,11 @@
       <c r="G513" s="4"/>
       <c r="H513" s="4"/>
       <c r="I513" s="4"/>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J513" s="4"/>
+      <c r="K513" s="4"/>
+      <c r="L513" s="4"/>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -6151,8 +7712,11 @@
       <c r="G514" s="4"/>
       <c r="H514" s="4"/>
       <c r="I514" s="4"/>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J514" s="4"/>
+      <c r="K514" s="4"/>
+      <c r="L514" s="4"/>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -6162,8 +7726,11 @@
       <c r="G515" s="4"/>
       <c r="H515" s="4"/>
       <c r="I515" s="4"/>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J515" s="4"/>
+      <c r="K515" s="4"/>
+      <c r="L515" s="4"/>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -6173,8 +7740,11 @@
       <c r="G516" s="4"/>
       <c r="H516" s="4"/>
       <c r="I516" s="4"/>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J516" s="4"/>
+      <c r="K516" s="4"/>
+      <c r="L516" s="4"/>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -6184,8 +7754,11 @@
       <c r="G517" s="4"/>
       <c r="H517" s="4"/>
       <c r="I517" s="4"/>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J517" s="4"/>
+      <c r="K517" s="4"/>
+      <c r="L517" s="4"/>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -6195,8 +7768,11 @@
       <c r="G518" s="4"/>
       <c r="H518" s="4"/>
       <c r="I518" s="4"/>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J518" s="4"/>
+      <c r="K518" s="4"/>
+      <c r="L518" s="4"/>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -6206,8 +7782,11 @@
       <c r="G519" s="4"/>
       <c r="H519" s="4"/>
       <c r="I519" s="4"/>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J519" s="4"/>
+      <c r="K519" s="4"/>
+      <c r="L519" s="4"/>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -6217,8 +7796,11 @@
       <c r="G520" s="4"/>
       <c r="H520" s="4"/>
       <c r="I520" s="4"/>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J520" s="4"/>
+      <c r="K520" s="4"/>
+      <c r="L520" s="4"/>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -6228,8 +7810,11 @@
       <c r="G521" s="4"/>
       <c r="H521" s="4"/>
       <c r="I521" s="4"/>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J521" s="4"/>
+      <c r="K521" s="4"/>
+      <c r="L521" s="4"/>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -6239,8 +7824,11 @@
       <c r="G522" s="4"/>
       <c r="H522" s="4"/>
       <c r="I522" s="4"/>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J522" s="4"/>
+      <c r="K522" s="4"/>
+      <c r="L522" s="4"/>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -6250,8 +7838,11 @@
       <c r="G523" s="4"/>
       <c r="H523" s="4"/>
       <c r="I523" s="4"/>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J523" s="4"/>
+      <c r="K523" s="4"/>
+      <c r="L523" s="4"/>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -6261,8 +7852,11 @@
       <c r="G524" s="4"/>
       <c r="H524" s="4"/>
       <c r="I524" s="4"/>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J524" s="4"/>
+      <c r="K524" s="4"/>
+      <c r="L524" s="4"/>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -6272,8 +7866,11 @@
       <c r="G525" s="4"/>
       <c r="H525" s="4"/>
       <c r="I525" s="4"/>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J525" s="4"/>
+      <c r="K525" s="4"/>
+      <c r="L525" s="4"/>
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -6283,8 +7880,11 @@
       <c r="G526" s="4"/>
       <c r="H526" s="4"/>
       <c r="I526" s="4"/>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J526" s="4"/>
+      <c r="K526" s="4"/>
+      <c r="L526" s="4"/>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -6294,8 +7894,11 @@
       <c r="G527" s="4"/>
       <c r="H527" s="4"/>
       <c r="I527" s="4"/>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J527" s="4"/>
+      <c r="K527" s="4"/>
+      <c r="L527" s="4"/>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -6305,34 +7908,24 @@
       <c r="G528" s="4"/>
       <c r="H528" s="4"/>
       <c r="I528" s="4"/>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A529" s="4"/>
-      <c r="B529" s="4"/>
-      <c r="C529" s="4"/>
-      <c r="D529" s="4"/>
-      <c r="E529" s="4"/>
-      <c r="F529" s="4"/>
-      <c r="G529" s="4"/>
-      <c r="H529" s="4"/>
-      <c r="I529" s="4"/>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A530" s="4"/>
-      <c r="B530" s="4"/>
-      <c r="C530" s="4"/>
-      <c r="D530" s="4"/>
-      <c r="E530" s="4"/>
-      <c r="F530" s="4"/>
-      <c r="G530" s="4"/>
-      <c r="H530" s="4"/>
-      <c r="I530" s="4"/>
+      <c r="J528" s="4"/>
+      <c r="K528" s="4"/>
+      <c r="L528" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{E645D317-0D42-46CC-95D4-B9B80E348D97}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J528" xr:uid="{E645D317-0D42-46CC-95D4-B9B80E348D97}">
       <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A528" xr:uid="{CFE916A5-1ECC-417F-9EED-58ADC07B730A}">
+      <formula1>"新增,修改"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L528" xr:uid="{0A3FC1A8-BF4B-44B5-A744-B02CDE0A3706}">
+      <formula1>"在用,禁用"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K528" xr:uid="{D1C26792-D53B-461E-B280-1DC4A7DFA53A}">
+      <formula1>"直送,配送"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
